--- a/e-Satus/S_B3.xlsx
+++ b/e-Satus/S_B3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miquel\Documents\Miquel\Miquel UPC\3r Quadrimestre\PE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9E6880-63DD-4067-B059-414E35760C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12A94A3-0AFD-4AB7-A34C-F349A011F134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26130" yWindow="-6885" windowWidth="17280" windowHeight="8970" tabRatio="747" firstSheet="4" activeTab="6" xr2:uid="{8451E67E-C2EA-43C4-A212-90B385F34466}"/>
+    <workbookView xWindow="-15765" yWindow="-15870" windowWidth="25440" windowHeight="15390" tabRatio="747" xr2:uid="{8451E67E-C2EA-43C4-A212-90B385F34466}"/>
   </bookViews>
   <sheets>
     <sheet name="Neos Solver" sheetId="1" r:id="rId1"/>
@@ -895,7 +895,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -944,12 +944,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -963,7 +957,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -980,8 +974,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4878,7 +4870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C90407-8108-45FD-9A07-D28343355440}">
   <dimension ref="B3:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -6922,8 +6914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99A6128-B736-4C98-973E-964F57E20875}">
   <dimension ref="B1:O64"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7452,11 +7444,11 @@
       <c r="I25" t="s">
         <v>44</v>
       </c>
-      <c r="J25" s="17"/>
-      <c r="N25" s="16">
+      <c r="J25" s="3">
         <f>1/(-LN(I21)/I22)</f>
         <v>15.292239263013649</v>
       </c>
+      <c r="N25" s="3"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26">
@@ -8230,7 +8222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7562F9ED-9F23-4E48-8B13-76FC95111DDD}">
   <dimension ref="B2:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -8246,7 +8238,7 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="16">
         <f>C2*60</f>
         <v>150</v>
       </c>
@@ -8264,7 +8256,7 @@
       <c r="D3" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="16">
         <f>C3/60</f>
         <v>0.6333333333333333</v>
       </c>
@@ -8349,7 +8341,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="17" t="s">
         <v>138</v>
       </c>
       <c r="E20">
@@ -8358,7 +8350,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="17" t="s">
         <v>137</v>
       </c>
     </row>
@@ -8423,7 +8415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DBF23B-669C-46BC-8D21-4AC9DF7DA7A5}">
   <dimension ref="B2:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
@@ -8546,7 +8538,7 @@
       <c r="L16" t="s">
         <v>44</v>
       </c>
-      <c r="M16" s="20">
+      <c r="M16" s="18">
         <f>1-EXP(-M7*E14)</f>
         <v>0.59878306465109388</v>
       </c>
@@ -8601,7 +8593,7 @@
       <c r="L21" t="s">
         <v>53</v>
       </c>
-      <c r="M21" s="20">
+      <c r="M21" s="18">
         <f>1-EXP(-M7*E19)</f>
         <v>0.74463470792661823</v>
       </c>
@@ -8774,7 +8766,7 @@
   <dimension ref="B2:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
